--- a/biology/Médecine/Maladie_de_Charcot-Marie-Tooth_intermédiaire_DI-CMT/Maladie_de_Charcot-Marie-Tooth_intermédiaire_DI-CMT.xlsx
+++ b/biology/Médecine/Maladie_de_Charcot-Marie-Tooth_intermédiaire_DI-CMT/Maladie_de_Charcot-Marie-Tooth_intermédiaire_DI-CMT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maladie_de_Charcot-Marie-Tooth_interm%C3%A9diaire_DI-CMT</t>
+          <t>Maladie_de_Charcot-Marie-Tooth_intermédiaire_DI-CMT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les maladies de Charcot-Marie-Tooth de type intermédiaire DI-CMT sont des neuropathies héréditaires du groupe des maladies de Charcot-Marie-Tooth. Leur transmission génétique est autosomique dominante.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maladie_de_Charcot-Marie-Tooth_interm%C3%A9diaire_DI-CMT</t>
+          <t>Maladie_de_Charcot-Marie-Tooth_intermédiaire_DI-CMT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tableau ci-dessous résument les différents sous types, la fréquence, les gènes, les chromosomes et les protéines impliqués dans les DI-CMT[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau ci-dessous résument les différents sous types, la fréquence, les gènes, les chromosomes et les protéines impliqués dans les DI-CMT.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maladie_de_Charcot-Marie-Tooth_interm%C3%A9diaire_DI-CMT</t>
+          <t>Maladie_de_Charcot-Marie-Tooth_intermédiaire_DI-CMT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maladie_de_Charcot-Marie-Tooth_interm%C3%A9diaire_DI-CMT</t>
+          <t>Maladie_de_Charcot-Marie-Tooth_intermédiaire_DI-CMT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -576,7 +594,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maladie_de_Charcot-Marie-Tooth_interm%C3%A9diaire_DI-CMT</t>
+          <t>Maladie_de_Charcot-Marie-Tooth_intermédiaire_DI-CMT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -595,6 +613,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -602,7 +622,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maladie_de_Charcot-Marie-Tooth_interm%C3%A9diaire_DI-CMT</t>
+          <t>Maladie_de_Charcot-Marie-Tooth_intermédiaire_DI-CMT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -621,6 +641,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -628,7 +650,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maladie_de_Charcot-Marie-Tooth_interm%C3%A9diaire_DI-CMT</t>
+          <t>Maladie_de_Charcot-Marie-Tooth_intermédiaire_DI-CMT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -647,6 +669,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
